--- a/spreadsheet/aks_checklist.en.xlsx
+++ b/spreadsheet/aks_checklist.en.xlsx
@@ -1657,7 +1657,7 @@
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Use Pod identity for workload identities (addon v2 in preview today)</t>
+          <t>For POD Identity Access Management use Azure AD Workload Identity (preview)</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1674,7 +1674,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-identity</t>
+          <t>https://learn.microsoft.com/azure/aks/workload-identity-migration-sidecar</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1693,23 +1693,23 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Choose the best CNI network plugin for your requirements (Azure CNI recommended)</t>
+          <t>For AKS non-interactive logins use kubelogin (preview)</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1720,7 +1720,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#non-interactive-sign-in-with-kubelogin</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1728,7 +1728,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1739,23 +1739,23 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>If using Azure CNI, size your subnet accordingly considering the maximum number of pods per node</t>
+          <t>Disable AKS local accounts</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
       <c r="E22" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1766,7 +1766,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#disable-local-accounts</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1774,7 +1774,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1785,23 +1785,23 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>If using Azure CNI, check the maximum pods/node (default 30)</t>
+          <t>Configure if required Just-in-time cluster access</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1812,7 +1812,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#configure-just-in-time-cluster-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1820,7 +1820,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1831,24 +1831,20 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>If using private-IP LoadBalancer services, use a dedicated subnet (not the AKS subnet)</t>
-        </is>
-      </c>
-      <c r="D24" s="22" t="inlineStr">
-        <is>
-          <t>For internal apps organizations often open the whole AKS subnet in their firewalls. This opens network access to the nodes too, and potentially to the pods as well (if using Azure CNI). If LoadBalancer IPs are in a different subnet, only this one needs to be available to the app clients. Another reason is that if the IP addresses in the AKS subnet are a scarce resource, consuming its IP addresses for services will reduce the maximum scalability of the cluster .</t>
-        </is>
-      </c>
+          <t>Configure if required AAD conditional access for AKS</t>
+        </is>
+      </c>
+      <c r="D24" s="22" t="n"/>
       <c r="E24" s="22" t="inlineStr">
         <is>
           <t>Low</t>
@@ -1862,7 +1858,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/internal-lb</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#use-conditional-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1870,7 +1866,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1881,23 +1877,23 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Size the service IP address range accordingly (it is going to limit the cluster scalability)</t>
+          <t xml:space="preserve">If required for Windows AKS workloads configure gMSA </t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1908,7 +1904,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/use-group-managed-service-accounts</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1916,7 +1912,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1927,23 +1923,23 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Filter egress traffic with AzFW/NVA if your security requirements mandate it</t>
+          <t>For finer control consider using a managed Kubelet Identity</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1954,7 +1950,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/limit-egress-traffic</t>
+          <t>https://learn.microsoft.com/azure/aks/use-managed-identity#use-a-pre-created-kubelet-managed-identity</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -1962,7 +1958,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -1978,18 +1974,18 @@
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>If using a public API endpoint, restrict the IP addresses that can access it</t>
+          <t>Choose the best CNI network plugin for your requirements (Azure CNI recommended)</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
       <c r="E27" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2000,14 +1996,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
+          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2023,18 +2019,18 @@
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Scalability</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Use an ingress controller to expose web-based apps instead of exposing them with LoadBalancer-type services</t>
+          <t>If using Azure CNI, size your subnet accordingly considering the maximum number of pods per node</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2045,14 +2041,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-network</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2068,18 +2064,18 @@
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Best practices</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>If using AGIC, do not share an AppGW across clusters</t>
+          <t>If using Azure CNI, check the maximum pods/node (default 30)</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
       <c r="E29" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2090,14 +2086,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
+          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2113,18 +2109,22 @@
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Use Private Endpoints (preferred) or Virtual Network Service Endpoints to access PaaS services from the cluster</t>
-        </is>
-      </c>
-      <c r="D30" s="22" t="n"/>
+          <t>If using private-IP LoadBalancer services, use a dedicated subnet (not the AKS subnet)</t>
+        </is>
+      </c>
+      <c r="D30" s="22" t="inlineStr">
+        <is>
+          <t>For internal apps organizations often open the whole AKS subnet in their firewalls. This opens network access to the nodes too, and potentially to the pods as well (if using Azure CNI). If LoadBalancer IPs are in a different subnet, only this one needs to be available to the app clients. Another reason is that if the IP addresses in the AKS subnet are a scarce resource, consuming its IP addresses for services will reduce the maximum scalability of the cluster .</t>
+        </is>
+      </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2135,14 +2135,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/private-link/private-link-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/internal-lb</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
+          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Use private clusters if your requirements mandate it</t>
+          <t>Size the service IP address range accordingly (it is going to limit the cluster scalability)</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
@@ -2180,14 +2180,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/private-clusters</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Enable a Kubernetes Network Policy option (Calico/Azure)</t>
+          <t>Filter egress traffic with AzFW/NVA if your security requirements mandate it</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2225,7 +2225,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-network-policies</t>
+          <t>https://docs.microsoft.com/azure/aks/limit-egress-traffic</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2233,7 +2233,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
+          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2254,13 +2254,13 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Use Kubernetes network policies to increase intra-cluster security</t>
+          <t>If using a public API endpoint, restrict the IP addresses that can access it</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
       <c r="E33" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2271,7 +2271,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://docs.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2279,7 +2279,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
+          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2295,18 +2295,18 @@
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Scalability</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Use a WAF for web workloads (UIs or APIs)</t>
+          <t>Use an ingress controller to expose web-based apps instead of exposing them with LoadBalancer-type services</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2317,7 +2317,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://docs.microsoft.com/azure/aks/concepts-network</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2325,7 +2325,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2341,18 +2341,18 @@
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Scalability</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Use DDoS Standard in the AKS Virtual Network</t>
+          <t>Use Azue NAT Gateway as outboundType for scaling egress traffic</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2363,7 +2363,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/aks/nat-gateway</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2371,7 +2371,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2387,18 +2387,18 @@
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>Best practices</t>
+          <t>Scalability</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Do not use AKS Application Routing Add-On</t>
+          <t>Use Dynamic allocations of IPs in order to avoid Azure CNI IP exhaustion</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2409,7 +2409,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/http-application-routing</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni#dynamic-allocation-of-ips-and-enhanced-subnet-support</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2417,7 +2417,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2438,13 +2438,13 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Use the standard ALB (as opposed to the basic one)</t>
+          <t>If using AGIC, do not share an AppGW across clusters</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2455,7 +2455,7 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
+          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
         </is>
       </c>
       <c r="I37" s="16" t="n"/>
@@ -2463,7 +2463,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
+          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2479,12 +2479,12 @@
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>If hybrid connectivity is required, use 2xER or ER+VPN for better availability</t>
+          <t>Use Private Endpoints (preferred) or Virtual Network Service Endpoints to access PaaS services from the cluster</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2501,7 +2501,7 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
+          <t>https://docs.microsoft.com/azure/private-link/private-link-overview</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2509,7 +2509,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
+          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2530,13 +2530,13 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Consider using a service mesh for advanced microservice communication management</t>
+          <t>Use private clusters if your requirements mandate it</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2547,7 +2547,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/servicemesh-about</t>
+          <t>https://docs.microsoft.com/azure/aks/private-clusters</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2555,7 +2555,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2566,17 +2566,17 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Governance and Security</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Store your secrets in Azure Key Vault with the CSI Secrets Store driver</t>
+          <t xml:space="preserve">For Windows 2019 and 2022 AKS nodes Calico Network Policies can be used </t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2593,7 +2593,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
+          <t>https://learn.microsoft.com/azure/aks/use-network-policies</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2601,7 +2601,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2612,17 +2612,17 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Governance and Security</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>If user Service Principals for the cluster, refresh credentials periodically (like quarterly)</t>
+          <t>Enable a Kubernetes Network Policy option (Calico/Azure)</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2639,7 +2639,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/update-credentials</t>
+          <t>https://docs.microsoft.com/azure/aks/use-network-policies</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2647,7 +2647,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
+          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2658,23 +2658,23 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Governance and Security</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy for Kubernetes to ensure cluster compliance</t>
+          <t>Use Kubernetes network policies to increase intra-cluster security</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
       <c r="E42" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2685,7 +2685,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2693,7 +2693,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
+          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2704,23 +2704,23 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Governance and Security</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Separate applications from the control plane with user/system nodepools</t>
+          <t>Use a WAF for web workloads (UIs or APIs)</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
       <c r="E43" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2731,7 +2731,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2739,7 +2739,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
+          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2750,23 +2750,23 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Governance and Security</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Add taint to your system nodepool to make it dedicated</t>
+          <t>Use DDoS Standard in the AKS Virtual Network</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
       <c r="E44" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2777,7 +2777,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2785,7 +2785,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2796,23 +2796,23 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Governance and Security</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Use a private registry for your images, such as ACR</t>
+          <t>If required add company HTTP Proxy</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
       <c r="E45" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2823,14 +2823,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/container-registry/</t>
+          <t>https://learn.microsoft.com/azure/aks/http-proxy</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2841,23 +2841,23 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Governance and Security</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Best practices</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Scan your images for vulnerabilities</t>
+          <t>Do not use AKS Application Routing Add-On</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
       <c r="E46" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2868,7 +2868,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
+          <t>https://docs.microsoft.com/azure/aks/http-application-routing</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -2876,7 +2876,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2887,17 +2887,17 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Governance and Security</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Best practices</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Security Center to detect security posture vulnerabiities</t>
+          <t>For Windows workloads use Accelerated Networking</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -2914,7 +2914,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -2922,7 +2922,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -2933,17 +2933,17 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Governance and Security</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Best practices</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Define app separation requirements (namespace/nodepool/cluster)</t>
+          <t>Use the standard ALB (as opposed to the basic one)</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -2960,14 +2960,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
+          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
+          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -2978,23 +2978,23 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Cost Governance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Use an external application such as kubecost to allocate custs to different users</t>
+          <t>If hybrid connectivity is required, use 2xER or ER+VPN for better availability</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3005,14 +3005,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/scenarios/aks/eslz-cost-governance-with-kubecost</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3023,23 +3023,23 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Use ephemeral OS disks</t>
+          <t>Consider using a service mesh for advanced microservice communication management</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
       <c r="E50" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3050,7 +3050,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://docs.microsoft.com/azure/aks/servicemesh-about</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3058,7 +3058,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3069,23 +3069,23 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B51" s="22" t="inlineStr">
+        <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="B51" s="22" t="inlineStr">
-        <is>
-          <t>Storage</t>
-        </is>
-      </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>For non-ephemeral disks, use high IOPS and larger OS disks for the nodes when running many pods/node since it require high performance for running multiple pods and will generate huge logs with default AKS log rotation thresholds</t>
+          <t>If required add your own CNI plugin</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3096,7 +3096,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://learn.microsoft.com/azure/aks/use-byo-cni</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3104,7 +3104,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3115,23 +3115,23 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B52" s="22" t="inlineStr">
+        <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="B52" s="22" t="inlineStr">
-        <is>
-          <t>Storage</t>
-        </is>
-      </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Avoid keeping state in the cluster, and store data outside (AzStorage, AzSQL, Cosmos, etc)</t>
+          <t>If required configure Public IP per node in AKS</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
       <c r="E52" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3142,7 +3142,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#assign-a-public-ip-per-node-for-your-node-pools</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3150,7 +3150,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3161,17 +3161,17 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Best practices</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>If using AzFiles Standard, consider AzFiles Premium and/or ANF for performance reasons</t>
+          <t>If using Azure CNI, consider using different Subnets for NodePools</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3188,14 +3188,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-storage</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-node-pool-with-a-unique-subnet</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3206,17 +3206,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>If using Azure Disks and AZs, consider having nodepools within a zone for LRS disk with VolumeBindingMode:WaitForFirstConsumer for provisioning storage in right zone or use ZRS disk for nodepools spanning multiple zones</t>
+          <t>Store your secrets in Azure Key Vault with the CSI Secrets Store driver</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3233,7 +3233,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
+          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3241,7 +3241,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
+          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3252,23 +3252,23 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Check regularly Azure Advisor for recommendations on your cluster</t>
+          <t>If user Service Principals for the cluster, refresh credentials periodically (like quarterly)</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3279,14 +3279,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/advisor/advisor-get-started</t>
+          <t>https://docs.microsoft.com/azure/aks/update-credentials</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
+          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3297,7 +3297,7 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
@@ -3307,13 +3307,13 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Develop your YAML manifests with intelligent text editors such as vscode+kubeadvisor</t>
+          <t>Use Azure Policy for Kubernetes to ensure cluster compliance</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
       <c r="E56" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3324,14 +3324,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>5388e9de-d167-4dd1-a2b0-ac241b999a64</t>
+          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3342,23 +3342,23 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Monitor your cluster metrics with Container Insights (or other tools like Prometheus)</t>
+          <t>Separate applications from the control plane with user/system nodepools</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
       <c r="E57" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3369,14 +3369,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
+          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3387,23 +3387,23 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Store and analyze your cluster logs with Container Insights (or other tools like Telegraf/ElasticSearch)</t>
+          <t>Add taint to your system nodepool to make it dedicated</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
       <c r="E58" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3414,14 +3414,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
+          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3432,23 +3432,23 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Alerting</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Configure alerts on the most critical metrics (see Container Insights for recommendations)</t>
+          <t>Use a private registry for your images, such as ACR</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
       <c r="E59" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3459,14 +3459,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
+          <t>https://docs.microsoft.com/azure/container-registry/</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
+          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3477,7 +3477,7 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
@@ -3487,13 +3487,13 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Have a regular process to upgrade your kubernetes version periodically (quarterly, for example), or use the AKS autoupgrade feature</t>
+          <t>Scan your images for vulnerabilities</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
       <c r="E60" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3504,14 +3504,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/supported-kubernetes-versions</t>
+          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
+          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3522,7 +3522,7 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
@@ -3532,13 +3532,13 @@
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Use kured for Linux node upgrades in case you are not using node-image upgrade</t>
+          <t>Use Azure Security Center to detect security posture vulnerabiities</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3549,14 +3549,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/node-updates-kured</t>
+          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3567,7 +3567,7 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
@@ -3577,13 +3577,13 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Have a regular process to upgrade the cluster node images periodically (weekly, for example)</t>
+          <t>If required configure FIPS</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
       <c r="E62" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3594,14 +3594,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/node-image-upgrade</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-fips-enabled-node-pool</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3612,23 +3612,23 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Consider gitops to deploy applications or cluster configuration to multiple clusters</t>
+          <t>If required add Key Management Service etcd encryption</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3639,7 +3639,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
+          <t>https://learn.microsoft.com/azure/aks/use-kms-etcd-encryption</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3647,7 +3647,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3658,17 +3658,17 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Consider spot node pools for non time-sensitive workloads</t>
+          <t>If required consider using Confidential Compute for AKS</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3685,7 +3685,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/spot-node-pool</t>
+          <t>https://learn.microsoft.com/azure/confidential-computing/confidential-nodes-aks-overview</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3693,7 +3693,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3704,23 +3704,23 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Consider AKS virtual node for quick bursting</t>
+          <t>Consider using Defender for Containers</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3731,7 +3731,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3739,7 +3739,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3750,7 +3750,7 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Develop own governanance practices to make sure no changes are performed by operators in the node RG (aka 'infra RG')</t>
+          <t>Define app separation requirements (namespace/nodepool/cluster)</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3777,14 +3777,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/faq</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3795,17 +3795,17 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Cost Governance</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Use custom Node RG (aka 'Infra RG') name</t>
+          <t>Use an external application such as kubecost to allocate custs to different users</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3822,7 +3822,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/scenarios/aks/eslz-cost-governance-with-kubecost</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -3830,7 +3830,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3841,23 +3841,23 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Cost Governance</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Do not use deprecated Kubernetes APIs in your YAML manifests</t>
+          <t>If required scale NodePool snapshots</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3868,7 +3868,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://kubernetes.io/docs/setup/release/notes/</t>
+          <t>https://learn.microsoft.com/azure/aks/node-pool-snapshot</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -3876,7 +3876,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3887,17 +3887,17 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Cost Governance</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Taint Windows nodes</t>
+          <t>Use scale down mode to delete/delallocate nodes</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -3914,7 +3914,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
+          <t>https://learn.microsoft.com/azure/aks/scale-down-mode</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -3922,7 +3922,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3933,23 +3933,23 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Cost Governance</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Keep windows containers patch level in sync with host patch level</t>
+          <t>When required use multi-instance partioning GPU on AKS Clusters</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
       <c r="E70" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3960,7 +3960,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
+          <t>https://learn.microsoft.com/azure/aks/gpu-multi-instance</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -3968,7 +3968,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -3979,23 +3979,23 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Cost Governance</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Monitor CPU and memory utilization of the nodes</t>
+          <t>If running a Dev/Test cluster use NodePool Start/Stop</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4006,7 +4006,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/containers/container-insights-analyze</t>
+          <t>https://learn.microsoft.com/azure/aks/start-stop-nodepools</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4014,7 +4014,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4030,18 +4030,18 @@
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>If using Azure CNI, monitor % of pod IPs consumed per node</t>
+          <t>Use ephemeral OS disks</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4052,7 +4052,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4060,7 +4060,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
+          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4076,22 +4076,18 @@
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Monitor OS disk queue depth in nodes</t>
-        </is>
-      </c>
-      <c r="D73" s="22" t="inlineStr">
-        <is>
-          <t>I/O in the OS disk is a critical resource. If the OS in the nodes gets throttled on I/O, this could lead to unpredictable behavior, typically ending up in node being declared NotReady</t>
-        </is>
-      </c>
+          <t>For non-ephemeral disks, use high IOPS and larger OS disks for the nodes when running many pods/node since it require high performance for running multiple pods and will generate huge logs with default AKS log rotation thresholds</t>
+        </is>
+      </c>
+      <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4102,7 +4098,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/premium-storage-performance</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4110,7 +4106,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4126,18 +4122,18 @@
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>If not using egress filtering with AzFW/NVA, monitor standard ALB allocated SNAT ports</t>
+          <t>For hyper performance storage option use Ultra Disks on AKS</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4148,7 +4144,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
+          <t>https://learn.microsoft.com/azure/aks/use-ultra-disks</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4156,7 +4152,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4172,12 +4168,12 @@
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Subscribe to resource health notifications for your AKS cluster</t>
+          <t>Avoid keeping state in the cluster, and store data outside (AzStorage, AzSQL, Cosmos, etc)</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4194,7 +4190,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/aks-resource-health</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4202,7 +4198,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
+          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4218,22 +4214,18 @@
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Send master logs (aka API logs) to Azure Monitor or your preferred log management solution</t>
-        </is>
-      </c>
-      <c r="D76" s="22" t="inlineStr">
-        <is>
-          <t>Via Diagnostic Settings at the cluster level</t>
-        </is>
-      </c>
+          <t>If using AzFiles Standard, consider AzFiles Premium and/or ANF for performance reasons</t>
+        </is>
+      </c>
+      <c r="D76" s="22" t="n"/>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4244,7 +4236,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/monitor-aks</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-storage</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4252,7 +4244,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
+          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4268,12 +4260,12 @@
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>Scalability</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Use the Cluster Autoscaler</t>
+          <t>If using Azure Disks and AZs, consider having nodepools within a zone for LRS disk with VolumeBindingMode:WaitForFirstConsumer for provisioning storage in right zone or use ZRS disk for nodepools spanning multiple zones</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4290,7 +4282,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://docs.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4298,7 +4290,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4314,18 +4306,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>Scalability</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Use the Horizontal Pod Autoscaler when required</t>
+          <t>Check regularly Azure Advisor for recommendations on your cluster</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4336,7 +4328,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://docs.microsoft.com/azure/advisor/advisor-get-started</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4344,7 +4336,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
+          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4360,22 +4352,18 @@
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>Scalability</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Consider an appropriate node size, not too large or too small</t>
-        </is>
-      </c>
-      <c r="D79" s="22" t="inlineStr">
-        <is>
-          <t>Larger nodes will bring higher performance and features such as ephemeral disks and accelerated networking, but they will increase the blast radius and decrease the scaling granularity</t>
-        </is>
-      </c>
+          <t>Develop your YAML manifests with intelligent text editors such as vscode+kubeadvisor</t>
+        </is>
+      </c>
+      <c r="D79" s="22" t="n"/>
       <c r="E79" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4386,7 +4374,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4394,7 +4382,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>5388e9de-d167-4dd1-a2b0-ac241b999a64</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4410,18 +4398,18 @@
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>Resources</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Configure requests and limits in your pod specs</t>
+          <t>Enable AKS auto-certificate rotation</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
       <c r="E80" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4432,7 +4420,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://learn.microsoft.com/azure/aks/certificate-rotation</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4440,7 +4428,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
+          <t>5388e9de-d167-4dd1-a2b0-ac241b999a64</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4456,18 +4444,18 @@
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>Resources</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Enforce resource quotas for namespaces</t>
+          <t>Monitor your cluster metrics with Container Insights (or other tools like Prometheus)</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
       <c r="E81" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4478,7 +4466,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4486,7 +4474,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>769ef669-1a48-435a-a942-223ece80b123</t>
+          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4502,12 +4490,12 @@
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>Resources</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Ensure your subscription has enough quota to scale out your nodepools</t>
+          <t>Store and analyze your cluster logs with Container Insights (or other tools like Telegraf/ElasticSearch)</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4524,7 +4512,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4532,7 +4520,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
+          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4543,23 +4531,23 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>Application Deployment</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>Infrastructure as Code</t>
+          <t>Alerting</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Use automation through ARM/TF to create your Azure resources</t>
+          <t>Configure alerts on the most critical metrics (see Container Insights for recommendations)</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4570,7 +4558,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/developer/terraform/create-k8s-cluster-with-tf-and-aks</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4578,7 +4566,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>3acbe04b-be20-49d3-afda-47778424d116</t>
+          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4589,23 +4577,23 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>Application Deployment</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Use canary or blue/green deployments</t>
+          <t>Have a regular process to upgrade your kubernetes version periodically (quarterly, for example), or use the AKS autoupgrade feature</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
       <c r="E84" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4616,7 +4604,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/containers/aks/secure-baseline-aks</t>
+          <t>https://docs.microsoft.com/azure/aks/supported-kubernetes-versions</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4624,7 +4612,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
+          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4635,23 +4623,23 @@
     <row r="85" ht="16.5" customHeight="1" s="13">
       <c r="A85" s="22" t="inlineStr">
         <is>
-          <t>Application Deployment</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Use KEDA if running event-driven workloads</t>
+          <t>Use kured for Linux node upgrades in case you are not using node-image upgrade</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
       <c r="E85" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4662,7 +4650,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-functions/functions-kubernetes-keda</t>
+          <t>https://docs.microsoft.com/azure/aks/node-updates-kured</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4670,7 +4658,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
+          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4681,23 +4669,23 @@
     <row r="86" ht="16.5" customHeight="1" s="13">
       <c r="A86" s="22" t="inlineStr">
         <is>
-          <t>Application Deployment</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Use Dapr to ease microservice development</t>
+          <t>Have a regular process to upgrade the cluster node images periodically (weekly, for example)</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4708,7 +4696,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://dapr.io/</t>
+          <t>https://docs.microsoft.com/azure/aks/node-image-upgrade</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4716,7 +4704,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
+          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4727,23 +4715,23 @@
     <row r="87" ht="16.5" customHeight="1" s="13">
       <c r="A87" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
+          <t>Consider gitops to deploy applications or cluster configuration to multiple clusters</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4754,19 +4742,15 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="n"/>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4777,23 +4761,23 @@
     <row r="88" ht="16.5" customHeight="1" s="13">
       <c r="A88" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
+          <t>Consider using AKS command invoke on private clusters</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4804,19 +4788,15 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I88" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/command-invoke</t>
+        </is>
+      </c>
+      <c r="I88" s="16" t="n"/>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4827,23 +4807,23 @@
     <row r="89" ht="16.5" customHeight="1" s="13">
       <c r="A89" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Consider spot node pools for non time-sensitive workloads</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4854,19 +4834,15 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I89" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/spot-node-pool</t>
+        </is>
+      </c>
+      <c r="I89" s="16" t="n"/>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4877,23 +4853,23 @@
     <row r="90" ht="16.5" customHeight="1" s="13">
       <c r="A90" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
+          <t>Consider AKS virtual node for quick bursting</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
       <c r="E90" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4904,19 +4880,15 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I90" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+        </is>
+      </c>
+      <c r="I90" s="16" t="n"/>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4927,23 +4899,23 @@
     <row r="91" ht="16.5" customHeight="1" s="13">
       <c r="A91" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>For planned events consider using Node Auto Drain</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
       <c r="E91" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4954,19 +4926,15 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I91" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/node-auto-repair#node-autodrain</t>
+        </is>
+      </c>
+      <c r="I91" s="16" t="n"/>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4977,23 +4945,23 @@
     <row r="92" ht="16.5" customHeight="1" s="13">
       <c r="A92" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Develop own governanance practices to make sure no changes are performed by operators in the node RG (aka 'infra RG')</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
       <c r="E92" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5004,19 +4972,15 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I92" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/faq</t>
+        </is>
+      </c>
+      <c r="I92" s="16" t="n"/>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5027,23 +4991,23 @@
     <row r="93" ht="16.5" customHeight="1" s="13">
       <c r="A93" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+          <t>Use custom Node RG (aka 'Infra RG') name</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
       <c r="E93" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5054,19 +5018,15 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I93" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
+        </is>
+      </c>
+      <c r="I93" s="16" t="n"/>
       <c r="J93" s="23" t="n"/>
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5077,17 +5037,17 @@
     <row r="94" ht="16.5" customHeight="1" s="13">
       <c r="A94" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Do not use deprecated Kubernetes APIs in your YAML manifests</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5104,19 +5064,15 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
-        </is>
-      </c>
-      <c r="I94" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://kubernetes.io/docs/setup/release/notes/</t>
+        </is>
+      </c>
+      <c r="I94" s="16" t="n"/>
       <c r="J94" s="23" t="n"/>
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5127,23 +5083,23 @@
     <row r="95" ht="16.5" customHeight="1" s="13">
       <c r="A95" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Taint Windows nodes</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
       <c r="E95" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5154,19 +5110,15 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I95" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
+        </is>
+      </c>
+      <c r="I95" s="16" t="n"/>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5177,23 +5129,23 @@
     <row r="96" ht="16.5" customHeight="1" s="13">
       <c r="A96" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>Keep windows containers patch level in sync with host patch level</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5204,19 +5156,15 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I96" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
+        </is>
+      </c>
+      <c r="I96" s="16" t="n"/>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5227,17 +5175,17 @@
     <row r="97" ht="16.5" customHeight="1" s="13">
       <c r="A97" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Protection Standard protection plans to help protect all public endpoints hosted within the virtual networks.</t>
+          <t>Monitor CPU and memory utilization of the nodes</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5254,19 +5202,15 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
-        </is>
-      </c>
-      <c r="I97" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-monitor/containers/container-insights-analyze</t>
+        </is>
+      </c>
+      <c r="I97" s="16" t="n"/>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5277,17 +5221,17 @@
     <row r="98" ht="16.5" customHeight="1" s="13">
       <c r="A98" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+          <t>If using Azure CNI, monitor % of pod IPs consumed per node</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5304,19 +5248,15 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
-        </is>
-      </c>
-      <c r="I98" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+        </is>
+      </c>
+      <c r="I98" s="16" t="n"/>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5327,20 +5267,24 @@
     <row r="99" ht="16.5" customHeight="1" s="13">
       <c r="A99" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
-        </is>
-      </c>
-      <c r="D99" s="22" t="n"/>
+          <t>Monitor OS disk queue depth in nodes</t>
+        </is>
+      </c>
+      <c r="D99" s="22" t="inlineStr">
+        <is>
+          <t>I/O in the OS disk is a critical resource. If the OS in the nodes gets throttled on I/O, this could lead to unpredictable behavior, typically ending up in node being declared NotReady</t>
+        </is>
+      </c>
       <c r="E99" s="22" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -5354,19 +5298,15 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I99" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-machines/premium-storage-performance</t>
+        </is>
+      </c>
+      <c r="I99" s="16" t="n"/>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5377,17 +5317,17 @@
     <row r="100" ht="16.5" customHeight="1" s="13">
       <c r="A100" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
+          <t>If not using egress filtering with AzFW/NVA, monitor standard ALB allocated SNAT ports</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5404,19 +5344,15 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
-        </is>
-      </c>
-      <c r="I100" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
+        </is>
+      </c>
+      <c r="I100" s="16" t="n"/>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5427,17 +5363,17 @@
     <row r="101" ht="16.5" customHeight="1" s="13">
       <c r="A101" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
+          <t>Subscribe to resource health notifications for your AKS cluster</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5454,19 +5390,15 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I101" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/aks-resource-health</t>
+        </is>
+      </c>
+      <c r="I101" s="16" t="n"/>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5477,23 +5409,27 @@
     <row r="102" ht="16.5" customHeight="1" s="13">
       <c r="A102" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Use a DDoS standard protection plan for all public IP addresses in a landing zone.</t>
-        </is>
-      </c>
-      <c r="D102" s="22" t="n"/>
+          <t>Send master logs (aka API logs) to Azure Monitor or your preferred log management solution</t>
+        </is>
+      </c>
+      <c r="D102" s="22" t="inlineStr">
+        <is>
+          <t>Via Diagnostic Settings at the cluster level</t>
+        </is>
+      </c>
       <c r="E102" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5504,19 +5440,15 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I102" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/monitor-aks</t>
+        </is>
+      </c>
+      <c r="I102" s="16" t="n"/>
       <c r="J102" s="23" t="n"/>
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5527,17 +5459,17 @@
     <row r="103" ht="16.5" customHeight="1" s="13">
       <c r="A103" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Scalability</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
+          <t>Use the Cluster Autoscaler</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5554,19 +5486,15 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I103" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+        </is>
+      </c>
+      <c r="I103" s="16" t="n"/>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5577,23 +5505,23 @@
     <row r="104" ht="16.5" customHeight="1" s="13">
       <c r="A104" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Scalability</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>Customize node configuration for AKS node pools</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
       <c r="E104" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5604,19 +5532,15 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I104" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/custom-node-configuration</t>
+        </is>
+      </c>
+      <c r="I104" s="16" t="n"/>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5627,17 +5551,17 @@
     <row r="105" ht="16.5" customHeight="1" s="13">
       <c r="A105" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Scalability</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>Use the Horizontal Pod Autoscaler when required</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5654,19 +5578,15 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I105" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+        </is>
+      </c>
+      <c r="I105" s="16" t="n"/>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5677,23 +5597,27 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Scalability</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
-        </is>
-      </c>
-      <c r="D106" s="22" t="n"/>
+          <t>Consider an appropriate node size, not too large or too small</t>
+        </is>
+      </c>
+      <c r="D106" s="22" t="inlineStr">
+        <is>
+          <t>Larger nodes will bring higher performance and features such as ephemeral disks and accelerated networking, but they will increase the blast radius and decrease the scaling granularity</t>
+        </is>
+      </c>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5704,19 +5628,15 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I106" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
-        </is>
-      </c>
+          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
+        </is>
+      </c>
+      <c r="I106" s="16" t="n"/>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5727,23 +5647,27 @@
     <row r="107" ht="16.5" customHeight="1" s="13">
       <c r="A107" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Scalability</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
-        </is>
-      </c>
-      <c r="D107" s="22" t="n"/>
+          <t>If required for scalability consider adding more than 5000 nodes</t>
+        </is>
+      </c>
+      <c r="D107" s="22" t="inlineStr">
+        <is>
+          <t>Larger nodes will bring higher performance and features such as ephemeral disks and accelerated networking, but they will increase the blast radius and decrease the scaling granularity</t>
+        </is>
+      </c>
       <c r="E107" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5754,19 +5678,15 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I107" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/quotas-skus-regions#service-quotas-and-limits</t>
+        </is>
+      </c>
+      <c r="I107" s="16" t="n"/>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5777,23 +5697,27 @@
     <row r="108" ht="16.5" customHeight="1" s="13">
       <c r="A108" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Scalability</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
-        </is>
-      </c>
-      <c r="D108" s="22" t="n"/>
+          <t>Consider subscribing to EventGrid Events for AKS automation</t>
+        </is>
+      </c>
+      <c r="D108" s="22" t="inlineStr">
+        <is>
+          <t>Larger nodes will bring higher performance and features such as ephemeral disks and accelerated networking, but they will increase the blast radius and decrease the scaling granularity</t>
+        </is>
+      </c>
       <c r="E108" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5804,19 +5728,15 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I108" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/event-grid/event-schema-aks</t>
+        </is>
+      </c>
+      <c r="I108" s="16" t="n"/>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5827,23 +5747,27 @@
     <row r="109" ht="16.5" customHeight="1" s="13">
       <c r="A109" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Scalability</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
-        </is>
-      </c>
-      <c r="D109" s="22" t="n"/>
+          <t>For long running operation on an AKS cluster consider event termination</t>
+        </is>
+      </c>
+      <c r="D109" s="22" t="inlineStr">
+        <is>
+          <t>Larger nodes will bring higher performance and features such as ephemeral disks and accelerated networking, but they will increase the blast radius and decrease the scaling granularity</t>
+        </is>
+      </c>
       <c r="E109" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5854,19 +5778,15 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I109" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/manage-abort-operations</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="n"/>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5877,23 +5797,27 @@
     <row r="110" ht="16.5" customHeight="1" s="13">
       <c r="A110" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Scalability</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
-        </is>
-      </c>
-      <c r="D110" s="22" t="n"/>
+          <t>If required consider using Azure Dedicated Hosts for AKS nodes</t>
+        </is>
+      </c>
+      <c r="D110" s="22" t="inlineStr">
+        <is>
+          <t>Larger nodes will bring higher performance and features such as ephemeral disks and accelerated networking, but they will increase the blast radius and decrease the scaling granularity</t>
+        </is>
+      </c>
       <c r="E110" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5904,19 +5828,15 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
-        </is>
-      </c>
-      <c r="I110" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/use-azure-dedicated-hosts</t>
+        </is>
+      </c>
+      <c r="I110" s="16" t="n"/>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5927,23 +5847,23 @@
     <row r="111" ht="16.5" customHeight="1" s="13">
       <c r="A111" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Resources</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>Configure requests and limits in your pod specs</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5954,19 +5874,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5977,17 +5892,17 @@
     <row r="112" ht="16.5" customHeight="1" s="13">
       <c r="A112" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Resources</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>Enforce resource quotas for namespaces</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6004,19 +5919,15 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="n"/>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>769ef669-1a48-435a-a942-223ece80b123</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6027,23 +5938,23 @@
     <row r="113" ht="16.5" customHeight="1" s="13">
       <c r="A113" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Resources</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+          <t>Ensure your subscription has enough quota to scale out your nodepools</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
       <c r="E113" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6054,19 +5965,15 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I113" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I113" s="16" t="n"/>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6077,17 +5984,17 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Application Deployment</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Infrastructure as Code</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+          <t>Use automation through ARM/TF to create your Azure resources</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6104,19 +6011,15 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I114" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/developer/terraform/create-k8s-cluster-with-tf-and-aks</t>
+        </is>
+      </c>
+      <c r="I114" s="16" t="n"/>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>3acbe04b-be20-49d3-afda-47778424d116</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6127,17 +6030,17 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Application Deployment</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>Use canary or blue/green deployments</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6154,14 +6057,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/containers/aks/secure-baseline-aks</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6172,23 +6075,23 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Application Deployment</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
+          <t>If requrired for AKS Windows workloads HostProcess containers can be used</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
       <c r="E116" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6199,19 +6102,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/aks/use-windows-hpc</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6222,23 +6120,23 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Application Deployment</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>Use KEDA if running event-driven workloads</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6249,19 +6147,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/azure-functions/functions-kubernetes-keda</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6272,23 +6165,23 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Application Deployment</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+          <t>Use Dapr to ease microservice development</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
       <c r="E118" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6299,19 +6192,15 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
-        </is>
-      </c>
-      <c r="I118" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://dapr.io/</t>
+        </is>
+      </c>
+      <c r="I118" s="16" t="n"/>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -11535,7 +11424,7 @@
     <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F87" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/aks_checklist.en.xlsx
+++ b/spreadsheet/aks_checklist.en.xlsx
@@ -1105,7 +1105,7 @@
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Define non-functional requirements such as SLAs, RTO (Recovery Time Objective) and RPO (Recovery Point Objective).</t>
+          <t>Define non-functional requirements such as SLAs, RTO (Recovery Time Objective) and RPO (Recovery Point Objective)</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -11399,7 +11399,7 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="9">
+  <dataValidations count="13">
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
@@ -11416,6 +11416,18 @@
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">

--- a/spreadsheet/aks_checklist.en.xlsx
+++ b/spreadsheet/aks_checklist.en.xlsx
@@ -1105,7 +1105,7 @@
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Define non-functional requirements such as SLAs, RTO (Recovery Time Objective) and RPO (Recovery Point Objective)</t>
+          <t>Define non-functional requirements such as SLAs, RTO (Recovery Time Objective) and RPO (Recovery Point Objective).</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>

--- a/spreadsheet/aks_checklist.en.xlsx
+++ b/spreadsheet/aks_checklist.en.xlsx
@@ -1105,7 +1105,7 @@
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Define non-functional requirements such as SLAs, RTO (Recovery Time Objective) and RPO (Recovery Point Objective)</t>
+          <t>Define non-functional requirements such as SLAs, RTO (Recovery Time Objective) and RPO (Recovery Point Objective).</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Use Availability Zones if supported in your Azure region</t>
+          <t>Use Availability Zones if they are supported in your Azure region</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>

--- a/spreadsheet/aks_checklist.en.xlsx
+++ b/spreadsheet/aks_checklist.en.xlsx
@@ -1095,23 +1095,23 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>BC and DR</t>
+          <t>Application Deployment</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Requirements</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Define non-functional requirements such as SLAs, RTO (Recovery Time Objective) and RPO (Recovery Point Objective).</t>
+          <t>Use canary or blue/green deployments</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1122,7 +1122,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/containers/aks/secure-baseline-aks</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1130,7 +1130,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>bc14aea6-e65d-48d9-a3ad-c218e6436b06</t>
+          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1141,23 +1141,23 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>BC and DR</t>
+          <t>Application Deployment</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Disaster Recovery</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Schedule and perform DR tests regularly</t>
+          <t>If requrired for AKS Windows workloads HostProcess containers can be used</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1168,7 +1168,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/aks/use-windows-hpc</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1176,7 +1176,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>36cb45e5-7960-4332-9bdf-8cc23318da61</t>
+          <t>ab5351f6-383a-45ed-9c5e-b143b16db40a</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1187,23 +1187,23 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>BC and DR</t>
+          <t>Application Deployment</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>High Availability</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Traffic Manager or Azure Front Door as a global load balancer for region failover</t>
+          <t>Use KEDA if running event-driven workloads</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1214,7 +1214,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
+          <t>https://docs.microsoft.com/azure/azure-functions/functions-kubernetes-keda</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1222,7 +1222,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>170265f4-bb46-4a39-9af7-f317284797b1</t>
+          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1233,23 +1233,23 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>BC and DR</t>
+          <t>Application Deployment</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>High Availability</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Use Availability Zones if they are supported in your Azure region</t>
+          <t>Use Dapr to ease microservice development</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1260,7 +1260,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/availability-zones</t>
+          <t>https://dapr.io/</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1268,7 +1268,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>578a219a-46be-4b54-9350-24922634292b</t>
+          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1279,23 +1279,23 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>BC and DR</t>
+          <t>Application Deployment</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>High Availability</t>
+          <t>Infrastructure as Code</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Use the SLA-backed AKS offering</t>
+          <t>Use automation through ARM/TF to create your Azure resources</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1306,7 +1306,7 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/uptime-sla</t>
+          <t>https://docs.microsoft.com/azure/developer/terraform/create-k8s-cluster-with-tf-and-aks</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1314,7 +1314,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
+          <t>3acbe04b-be20-49d3-afda-47778424d116</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1330,18 +1330,18 @@
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>High Availability</t>
+          <t>Disaster Recovery</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Use Disruption Budgets in your pod and deployment definitions</t>
+          <t>Schedule and perform DR tests regularly</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1360,7 +1360,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
+          <t>36cb45e5-7960-4332-9bdf-8cc23318da61</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1381,13 +1381,13 @@
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>If using a private registry, configure region replication to store images in multiple regions</t>
+          <t>Use Azure Traffic Manager or Azure Front Door as a global load balancer for region failover</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1398,7 +1398,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/container-registry/container-registry-geo-replication</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1406,7 +1406,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
+          <t>170265f4-bb46-4a39-9af7-f317284797b1</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1417,23 +1417,23 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>BC and DR</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>High Availability</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Use managed identities instead of Service Principals</t>
+          <t>Use Availability Zones if they are supported in your Azure region</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1444,7 +1444,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-managed-identity</t>
+          <t>https://docs.microsoft.com/azure/aks/availability-zones</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
+          <t>578a219a-46be-4b54-9350-24922634292b</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1463,23 +1463,23 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>BC and DR</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>High Availability</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Integrate authentication with AAD (using the managed integration)</t>
+          <t>Use the SLA-backed AKS offering</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1490,7 +1490,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/managed-aad</t>
+          <t>https://docs.microsoft.com/azure/aks/uptime-sla</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1498,7 +1498,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
+          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1509,23 +1509,23 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>BC and DR</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>High Availability</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Limit access to admin kubeconfig (get-credentials --admin)</t>
+          <t>Use Disruption Budgets in your pod and deployment definitions</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
       <c r="E17" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1536,7 +1536,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/control-kubeconfig-access</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1544,7 +1544,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
+          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1555,23 +1555,23 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>BC and DR</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>High Availability</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Integrate authorization with AAD RBAC</t>
+          <t>If using a private registry, configure region replication to store images in multiple regions</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
       <c r="E18" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1582,7 +1582,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/manage-azure-rbac</t>
+          <t>https://docs.microsoft.com/azure/container-registry/container-registry-geo-replication</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1590,7 +1590,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
+          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1601,17 +1601,17 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>BC and DR</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Requirements</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Use namespaces for restricting RBAC privilege in Kubernetes</t>
+          <t>Define non-functional requirements such as SLAs, RTO (Recovery Time Objective) and RPO (Recovery Point Objective).</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1628,7 +1628,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-identity</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1636,7 +1636,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
+          <t>bc14aea6-e65d-48d9-a3ad-c218e6436b06</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1647,23 +1647,23 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Cost Governance</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>For POD Identity Access Management use Azure AD Workload Identity (preview)</t>
+          <t>Use an external application such as kubecost to allocate costs to different users</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1674,7 +1674,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/workload-identity-migration-sidecar</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/scenarios/aks/eslz-cost-governance-with-kubecost</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1693,23 +1693,23 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Cost Governance</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>For AKS non-interactive logins use kubelogin (preview)</t>
+          <t>If required scale NodePool snapshots</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1720,7 +1720,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#non-interactive-sign-in-with-kubelogin</t>
+          <t>https://learn.microsoft.com/azure/aks/node-pool-snapshot</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1728,7 +1728,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1739,23 +1739,23 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Cost Governance</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Disable AKS local accounts</t>
+          <t>Use scale down mode to delete/delallocate nodes</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
       <c r="E22" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1766,7 +1766,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#disable-local-accounts</t>
+          <t>https://learn.microsoft.com/azure/aks/scale-down-mode</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1774,7 +1774,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1785,23 +1785,23 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Cost Governance</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Configure if required Just-in-time cluster access</t>
+          <t>When required use multi-instance partioning GPU on AKS Clusters</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1812,7 +1812,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#configure-just-in-time-cluster-access-with-azure-ad-and-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/gpu-multi-instance</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1820,7 +1820,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1831,17 +1831,17 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Cost Governance</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Configure if required AAD conditional access for AKS</t>
+          <t>If running a Dev/Test cluster use NodePool Start/Stop</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1858,7 +1858,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#use-conditional-access-with-azure-ad-and-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/start-stop-nodepools</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1866,7 +1866,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1877,23 +1877,23 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">If required for Windows AKS workloads configure gMSA </t>
+          <t>Use Azure Policy for Kubernetes to ensure cluster compliance</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1904,7 +1904,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-group-managed-service-accounts</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1912,7 +1912,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1923,17 +1923,17 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>For finer control consider using a managed Kubelet Identity</t>
+          <t>Separate applications from the control plane with user/system nodepools</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
@@ -1950,7 +1950,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-managed-identity#use-a-pre-created-kubelet-managed-identity</t>
+          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -1958,7 +1958,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -1969,23 +1969,23 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Choose the best CNI network plugin for your requirements (Azure CNI recommended)</t>
+          <t>Add taint to your system nodepool to make it dedicated</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
       <c r="E27" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1996,14 +1996,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
+          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2014,23 +2014,23 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>If using Azure CNI, size your subnet accordingly considering the maximum number of pods per node</t>
+          <t>Use a private registry for your images, such as ACR</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2041,14 +2041,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://docs.microsoft.com/azure/container-registry/</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
+          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2059,23 +2059,23 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>If using Azure CNI, check the maximum pods/node (default 30)</t>
+          <t>Scan your images for vulnerabilities</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
       <c r="E29" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2086,14 +2086,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
+          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2104,27 +2104,23 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>If using private-IP LoadBalancer services, use a dedicated subnet (not the AKS subnet)</t>
-        </is>
-      </c>
-      <c r="D30" s="22" t="inlineStr">
-        <is>
-          <t>For internal apps organizations often open the whole AKS subnet in their firewalls. This opens network access to the nodes too, and potentially to the pods as well (if using Azure CNI). If LoadBalancer IPs are in a different subnet, only this one needs to be available to the app clients. Another reason is that if the IP addresses in the AKS subnet are a scarce resource, consuming its IP addresses for services will reduce the maximum scalability of the cluster .</t>
-        </is>
-      </c>
+          <t>Use Azure Security Center to detect security posture vulnerabiities</t>
+        </is>
+      </c>
+      <c r="D30" s="22" t="n"/>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2135,14 +2131,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/internal-lb</t>
+          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2153,23 +2149,23 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Size the service IP address range accordingly (it is going to limit the cluster scalability)</t>
+          <t>If required configure FIPS</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2180,14 +2176,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-fips-enabled-node-pool</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>42d4aefe-2383-470e-b019-c30df24996b2</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2198,17 +2194,17 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Filter egress traffic with AzFW/NVA if your security requirements mandate it</t>
+          <t>Define app separation requirements (namespace/nodepool/cluster)</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2225,7 +2221,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/limit-egress-traffic</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2233,7 +2229,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
+          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2244,17 +2240,17 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>If using a public API endpoint, restrict the IP addresses that can access it</t>
+          <t>Store your secrets in Azure Key Vault with the CSI Secrets Store driver</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2271,7 +2267,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
+          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2279,7 +2275,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
+          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2290,23 +2286,23 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Scalability</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Use an ingress controller to expose web-based apps instead of exposing them with LoadBalancer-type services</t>
+          <t>If using Service Principals for the cluster, refresh credentials periodically (like quarterly)</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2317,7 +2313,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-network</t>
+          <t>https://docs.microsoft.com/azure/aks/update-credentials</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2325,7 +2321,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2336,23 +2332,23 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Scalability</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Use Azue NAT Gateway as outboundType for scaling egress traffic</t>
+          <t>If required add Key Management Service etcd encryption</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2363,7 +2359,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/nat-gateway</t>
+          <t>https://learn.microsoft.com/azure/aks/use-kms-etcd-encryption</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2371,7 +2367,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2382,23 +2378,23 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>Scalability</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Use Dynamic allocations of IPs in order to avoid Azure CNI IP exhaustion</t>
+          <t>If required consider using Confidential Compute for AKS</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2409,7 +2405,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni#dynamic-allocation-of-ips-and-enhanced-subnet-support</t>
+          <t>https://learn.microsoft.com/azure/confidential-computing/confidential-nodes-aks-overview</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2417,7 +2413,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2428,17 +2424,17 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>Best practices</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>If using AGIC, do not share an AppGW across clusters</t>
+          <t>Consider using Defender for Containers</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
@@ -2455,7 +2451,7 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable</t>
         </is>
       </c>
       <c r="I37" s="16" t="n"/>
@@ -2463,7 +2459,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
+          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2474,23 +2470,23 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Use Private Endpoints (preferred) or Virtual Network Service Endpoints to access PaaS services from the cluster</t>
+          <t>Use managed identities instead of Service Principals</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
       <c r="E38" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2501,7 +2497,7 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/private-link/private-link-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/use-managed-identity</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2509,7 +2505,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
+          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2520,23 +2516,23 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Use private clusters if your requirements mandate it</t>
+          <t>Integrate authentication with AAD (using the managed integration)</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2547,7 +2543,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/private-clusters</t>
+          <t>https://docs.microsoft.com/azure/aks/managed-aad</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2555,7 +2551,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2566,17 +2562,17 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For Windows 2019 and 2022 AKS nodes Calico Network Policies can be used </t>
+          <t>Limit access to admin kubeconfig (get-credentials --admin)</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2593,7 +2589,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-network-policies</t>
+          <t>https://docs.microsoft.com/azure/aks/control-kubeconfig-access</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2601,7 +2597,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2612,23 +2608,23 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Enable a Kubernetes Network Policy option (Calico/Azure)</t>
+          <t>Integrate authorization with AAD RBAC</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2639,7 +2635,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-network-policies</t>
+          <t>https://docs.microsoft.com/azure/aks/manage-azure-rbac</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2647,7 +2643,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
+          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2658,17 +2654,17 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Use Kubernetes network policies to increase intra-cluster security</t>
+          <t>Use namespaces for restricting RBAC privilege in Kubernetes</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2685,7 +2681,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-identity</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2693,7 +2689,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
+          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2704,23 +2700,23 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Use a WAF for web workloads (UIs or APIs)</t>
+          <t>For POD Identity Access Management use Azure AD Workload Identity (preview)</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
       <c r="E43" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2731,7 +2727,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://learn.microsoft.com/azure/aks/workload-identity-migration-sidecar</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2739,7 +2735,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2750,17 +2746,17 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Use DDoS Standard in the AKS Virtual Network</t>
+          <t>For AKS non-interactive logins use kubelogin (preview)</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2777,7 +2773,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#non-interactive-sign-in-with-kubelogin</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2785,7 +2781,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2796,23 +2792,23 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>If required add company HTTP Proxy</t>
+          <t>Disable AKS local accounts</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
       <c r="E45" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2823,14 +2819,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/http-proxy</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#disable-local-accounts</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2841,23 +2837,23 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Best practices</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Do not use AKS Application Routing Add-On</t>
+          <t>Configure if required Just-in-time cluster access</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
       <c r="E46" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2868,7 +2864,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/http-application-routing</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#configure-just-in-time-cluster-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -2876,7 +2872,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2887,23 +2883,23 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Best practices</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>For Windows workloads use Accelerated Networking</t>
+          <t>Configure if required AAD conditional access for AKS</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2914,7 +2910,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#use-conditional-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -2922,7 +2918,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -2933,23 +2929,23 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>Best practices</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Use the standard ALB (as opposed to the basic one)</t>
+          <t xml:space="preserve">If required for Windows AKS workloads configure gMSA </t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
       <c r="E48" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2960,14 +2956,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
+          <t>https://learn.microsoft.com/azure/aks/use-group-managed-service-accounts</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
+          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -2978,17 +2974,17 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>If hybrid connectivity is required, use 2xER or ER+VPN for better availability</t>
+          <t>For finer control consider using a managed Kubelet Identity</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3005,14 +3001,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
+          <t>https://learn.microsoft.com/azure/aks/use-managed-identity#use-a-pre-created-kubelet-managed-identity</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
+          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3028,12 +3024,12 @@
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Best practices</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Consider using a service mesh for advanced microservice communication management</t>
+          <t>If using AGIC, do not share an AppGW across clusters</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3050,7 +3046,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/servicemesh-about</t>
+          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3058,7 +3054,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3074,18 +3070,18 @@
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Best practices</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>If required add your own CNI plugin</t>
+          <t>Do not use AKS Application Routing Add-On</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3096,7 +3092,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-byo-cni</t>
+          <t>https://docs.microsoft.com/azure/aks/http-application-routing</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3104,7 +3100,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3120,18 +3116,18 @@
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Best practices</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>If required configure Public IP per node in AKS</t>
+          <t>For Windows workloads use Accelerated Networking</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
       <c r="E52" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3142,7 +3138,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#assign-a-public-ip-per-node-for-your-node-pools</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3150,7 +3146,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3171,13 +3167,13 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>If using Azure CNI, consider using different Subnets for NodePools</t>
+          <t>Use the standard ALB (as opposed to the basic one)</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
       <c r="E53" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3188,14 +3184,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-node-pool-with-a-unique-subnet</t>
+          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3206,17 +3202,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Governance and Security</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Best practices</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Store your secrets in Azure Key Vault with the CSI Secrets Store driver</t>
+          <t>If using Azure CNI, consider using different Subnets for NodePools</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3233,7 +3229,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-node-pool-with-a-unique-subnet</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3241,7 +3237,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
+          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3252,23 +3248,23 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Governance and Security</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>If user Service Principals for the cluster, refresh credentials periodically (like quarterly)</t>
+          <t>Use Private Endpoints (preferred) or Virtual Network Service Endpoints to access PaaS services from the cluster</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3279,14 +3275,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/update-credentials</t>
+          <t>https://docs.microsoft.com/azure/private-link/private-link-overview</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
+          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3297,17 +3293,17 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Governance and Security</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy for Kubernetes to ensure cluster compliance</t>
+          <t>If hybrid connectivity is required, use 2xER or ER+VPN for better availability</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3324,14 +3320,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
+          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3342,23 +3338,23 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Governance and Security</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Separate applications from the control plane with user/system nodepools</t>
+          <t>Choose the best CNI network plugin for your requirements (Azure CNI recommended)</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
       <c r="E57" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3369,14 +3365,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
+          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3387,23 +3383,23 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Governance and Security</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Add taint to your system nodepool to make it dedicated</t>
+          <t>If using Azure CNI, size your subnet accordingly considering the maximum number of pods per node</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
       <c r="E58" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3414,14 +3410,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
+          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3432,23 +3428,23 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Governance and Security</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Use a private registry for your images, such as ACR</t>
+          <t>If using Azure CNI, check the maximum pods/node (default 30)</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
       <c r="E59" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3459,14 +3455,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/container-registry/</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
+          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3477,23 +3473,27 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Governance and Security</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Scan your images for vulnerabilities</t>
-        </is>
-      </c>
-      <c r="D60" s="22" t="n"/>
+          <t>If using private-IP LoadBalancer services, use a dedicated subnet (not the AKS subnet)</t>
+        </is>
+      </c>
+      <c r="D60" s="22" t="inlineStr">
+        <is>
+          <t>For internal apps organizations often open the whole AKS subnet in their firewalls. This opens network access to the nodes too, and potentially to the pods as well (if using Azure CNI). If LoadBalancer IPs are in a different subnet, only this one needs to be available to the app clients. Another reason is that if the IP addresses in the AKS subnet are a scarce resource, consuming its IP addresses for services will reduce the maximum scalability of the cluster .</t>
+        </is>
+      </c>
       <c r="E60" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3504,14 +3504,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
+          <t>https://docs.microsoft.com/azure/aks/internal-lb</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
+          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3522,23 +3522,23 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Governance and Security</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Security Center to detect security posture vulnerabiities</t>
+          <t>Size the service IP address range accordingly (it is going to limit the cluster scalability)</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3549,14 +3549,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3567,17 +3567,17 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Governance and Security</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>If required configure FIPS</t>
+          <t>If required add your own CNI plugin</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3594,14 +3594,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-fips-enabled-node-pool</t>
+          <t>https://learn.microsoft.com/azure/aks/use-byo-cni</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3612,23 +3612,23 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Governance and Security</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>If required add Key Management Service etcd encryption</t>
+          <t>If required configure Public IP per node in AKS</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3639,7 +3639,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-kms-etcd-encryption</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#assign-a-public-ip-per-node-for-your-node-pools</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3647,7 +3647,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3658,23 +3658,23 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Governance and Security</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Scalability</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>If required consider using Confidential Compute for AKS</t>
+          <t>Use an ingress controller to expose web-based apps instead of exposing them with LoadBalancer-type services</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
       <c r="E64" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3685,7 +3685,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/confidential-computing/confidential-nodes-aks-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/concepts-network</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3693,7 +3693,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3704,23 +3704,23 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Governance and Security</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Scalability</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Consider using Defender for Containers</t>
+          <t>Use Azue NAT Gateway as outboundType for scaling egress traffic</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3731,7 +3731,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable</t>
+          <t>https://learn.microsoft.com/azure/aks/nat-gateway</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3739,7 +3739,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3750,23 +3750,23 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Governance and Security</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Scalability</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Define app separation requirements (namespace/nodepool/cluster)</t>
+          <t>Use Dynamic allocations of IPs in order to avoid Azure CNI IP exhaustion</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
       <c r="E66" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3777,14 +3777,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni#dynamic-allocation-of-ips-and-enhanced-subnet-support</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
+          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3795,23 +3795,23 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Cost Governance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Use an external application such as kubecost to allocate custs to different users</t>
+          <t>Filter egress traffic with AzFW/NVA if your security requirements mandate it</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
       <c r="E67" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3822,7 +3822,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/scenarios/aks/eslz-cost-governance-with-kubecost</t>
+          <t>https://docs.microsoft.com/azure/aks/limit-egress-traffic</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -3830,7 +3830,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3841,23 +3841,23 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>Cost Governance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>If required scale NodePool snapshots</t>
+          <t>If using a public API endpoint, restrict the IP addresses that can access it</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3868,7 +3868,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-pool-snapshot</t>
+          <t>https://docs.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -3876,7 +3876,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3887,23 +3887,23 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>Cost Governance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Use scale down mode to delete/delallocate nodes</t>
+          <t>Use private clusters if your requirements mandate it</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3914,7 +3914,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/scale-down-mode</t>
+          <t>https://docs.microsoft.com/azure/aks/private-clusters</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -3922,7 +3922,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3933,17 +3933,17 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>Cost Governance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>When required use multi-instance partioning GPU on AKS Clusters</t>
+          <t xml:space="preserve">For Windows 2019 and 2022 AKS nodes Calico Network Policies can be used </t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -3960,7 +3960,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/gpu-multi-instance</t>
+          <t>https://learn.microsoft.com/azure/aks/use-network-policies</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -3968,7 +3968,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -3979,23 +3979,23 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>Cost Governance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>If running a Dev/Test cluster use NodePool Start/Stop</t>
+          <t>Enable a Kubernetes Network Policy option (Calico/Azure)</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4006,7 +4006,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/start-stop-nodepools</t>
+          <t>https://docs.microsoft.com/azure/aks/use-network-policies</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4014,7 +4014,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4025,17 +4025,17 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Use ephemeral OS disks</t>
+          <t>Use Kubernetes network policies to increase intra-cluster security</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4052,7 +4052,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4060,7 +4060,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
+          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4071,17 +4071,17 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>For non-ephemeral disks, use high IOPS and larger OS disks for the nodes when running many pods/node since it require high performance for running multiple pods and will generate huge logs with default AKS log rotation thresholds</t>
+          <t>Use a WAF for web workloads (UIs or APIs)</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4098,7 +4098,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4106,7 +4106,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4117,23 +4117,23 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>For hyper performance storage option use Ultra Disks on AKS</t>
+          <t>Use DDoS Standard in the AKS Virtual Network</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4144,7 +4144,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-ultra-disks</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4152,7 +4152,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4163,23 +4163,23 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Avoid keeping state in the cluster, and store data outside (AzStorage, AzSQL, Cosmos, etc)</t>
+          <t>If required add company HTTP Proxy</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4190,7 +4190,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
+          <t>https://learn.microsoft.com/azure/aks/http-proxy</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4198,7 +4198,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
+          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4209,17 +4209,17 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>If using AzFiles Standard, consider AzFiles Premium and/or ANF for performance reasons</t>
+          <t>Consider using a service mesh for advanced microservice communication management</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4236,7 +4236,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-storage</t>
+          <t>https://docs.microsoft.com/azure/aks/servicemesh-about</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4244,7 +4244,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4260,18 +4260,18 @@
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Alerting</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>If using Azure Disks and AZs, consider having nodepools within a zone for LRS disk with VolumeBindingMode:WaitForFirstConsumer for provisioning storage in right zone or use ZRS disk for nodepools spanning multiple zones</t>
+          <t>Configure alerts on the most critical metrics (see Container Insights for recommendations)</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4282,7 +4282,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4290,7 +4290,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
+          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4428,7 +4428,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>5388e9de-d167-4dd1-a2b0-ac241b999a64</t>
+          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4444,12 +4444,12 @@
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Monitor your cluster metrics with Container Insights (or other tools like Prometheus)</t>
+          <t>Have a regular process to upgrade your kubernetes version periodically (quarterly, for example), or use the AKS autoupgrade feature</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4466,7 +4466,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/supported-kubernetes-versions</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4474,7 +4474,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
+          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4490,12 +4490,12 @@
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Store and analyze your cluster logs with Container Insights (or other tools like Telegraf/ElasticSearch)</t>
+          <t>Use kured for Linux node upgrades in case you are not using node-image upgrade</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4512,7 +4512,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/node-updates-kured</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4520,7 +4520,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
+          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4536,12 +4536,12 @@
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>Alerting</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Configure alerts on the most critical metrics (see Container Insights for recommendations)</t>
+          <t>Have a regular process to upgrade the cluster node images periodically (weekly, for example)</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4558,7 +4558,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
+          <t>https://docs.microsoft.com/azure/aks/node-image-upgrade</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4566,7 +4566,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
+          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4587,13 +4587,13 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Have a regular process to upgrade your kubernetes version periodically (quarterly, for example), or use the AKS autoupgrade feature</t>
+          <t>Consider gitops to deploy applications or cluster configuration to multiple clusters</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
       <c r="E84" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4604,7 +4604,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/supported-kubernetes-versions</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4612,7 +4612,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4633,13 +4633,13 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Use kured for Linux node upgrades in case you are not using node-image upgrade</t>
+          <t>Consider using AKS command invoke on private clusters</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
       <c r="E85" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4650,7 +4650,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/node-updates-kured</t>
+          <t>https://learn.microsoft.com/azure/aks/command-invoke</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4658,7 +4658,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
+          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4679,13 +4679,13 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Have a regular process to upgrade the cluster node images periodically (weekly, for example)</t>
+          <t>For planned events consider using Node Auto Drain</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4696,7 +4696,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/node-image-upgrade</t>
+          <t>https://learn.microsoft.com/azure/aks/node-auto-repair#node-autodrain</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4704,7 +4704,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4725,13 +4725,13 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Consider gitops to deploy applications or cluster configuration to multiple clusters</t>
+          <t>Develop own governanance practices to make sure no changes are performed by operators in the node RG (aka 'infra RG')</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4742,7 +4742,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
+          <t>https://docs.microsoft.com/azure/aks/faq</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -4750,7 +4750,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Consider using AKS command invoke on private clusters</t>
+          <t>Use custom Node RG (aka 'Infra RG') name</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -4788,7 +4788,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/command-invoke</t>
+          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -4796,7 +4796,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4812,18 +4812,18 @@
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Consider spot node pools for non time-sensitive workloads</t>
+          <t>Do not use deprecated Kubernetes APIs in your YAML manifests</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4834,7 +4834,7 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/spot-node-pool</t>
+          <t>https://kubernetes.io/docs/setup/release/notes/</t>
         </is>
       </c>
       <c r="I89" s="16" t="n"/>
@@ -4842,7 +4842,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
+          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4858,12 +4858,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Consider AKS virtual node for quick bursting</t>
+          <t>Taint Windows nodes</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4880,7 +4880,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://docs.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -4888,7 +4888,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
+          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>For planned events consider using Node Auto Drain</t>
+          <t>Keep windows containers patch level in sync with host patch level</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4926,7 +4926,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-auto-repair#node-autodrain</t>
+          <t>https://docs.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -4934,7 +4934,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4955,13 +4955,17 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Develop own governanance practices to make sure no changes are performed by operators in the node RG (aka 'infra RG')</t>
-        </is>
-      </c>
-      <c r="D92" s="22" t="n"/>
+          <t>Send master logs (aka API logs) to Azure Monitor or your preferred log management solution</t>
+        </is>
+      </c>
+      <c r="D92" s="22" t="inlineStr">
+        <is>
+          <t>Via Diagnostic Settings at the cluster level</t>
+        </is>
+      </c>
       <c r="E92" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4972,7 +4976,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/faq</t>
+          <t>https://docs.microsoft.com/azure/aks/monitor-aks</t>
         </is>
       </c>
       <c r="I92" s="16" t="n"/>
@@ -4980,7 +4984,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -4996,12 +5000,12 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Use custom Node RG (aka 'Infra RG') name</t>
+          <t>Consider spot node pools for non time-sensitive workloads</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5018,7 +5022,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://docs.microsoft.com/azure/aks/spot-node-pool</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5026,7 +5030,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
+          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5042,18 +5046,18 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Do not use deprecated Kubernetes APIs in your YAML manifests</t>
+          <t>Consider AKS virtual node for quick bursting</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
       <c r="E94" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5064,7 +5068,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://kubernetes.io/docs/setup/release/notes/</t>
+          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5072,7 +5076,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
+          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5088,18 +5092,18 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Taint Windows nodes</t>
+          <t>Monitor your cluster metrics with Container Insights (or other tools like Prometheus)</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
       <c r="E95" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5110,7 +5114,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5118,7 +5122,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
+          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5134,18 +5138,18 @@
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Keep windows containers patch level in sync with host patch level</t>
+          <t>Store and analyze your cluster logs with Container Insights (or other tools like Telegraf/ElasticSearch)</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5156,7 +5160,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5164,7 +5168,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
+          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5414,22 +5418,18 @@
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Resources</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Send master logs (aka API logs) to Azure Monitor or your preferred log management solution</t>
-        </is>
-      </c>
-      <c r="D102" s="22" t="inlineStr">
-        <is>
-          <t>Via Diagnostic Settings at the cluster level</t>
-        </is>
-      </c>
+          <t>Configure requests and limits in your pod specs</t>
+        </is>
+      </c>
+      <c r="D102" s="22" t="n"/>
       <c r="E102" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5440,7 +5440,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/monitor-aks</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5448,7 +5448,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
+          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5464,12 +5464,12 @@
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>Scalability</t>
+          <t>Resources</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Use the Cluster Autoscaler</t>
+          <t>Enforce resource quotas for namespaces</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5486,7 +5486,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="I103" s="16" t="n"/>
@@ -5494,7 +5494,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>769ef669-1a48-435a-a942-223ece80b123</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5510,18 +5510,18 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>Scalability</t>
+          <t>Resources</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Customize node configuration for AKS node pools</t>
+          <t>Ensure your subscription has enough quota to scale out your nodepools</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
       <c r="E104" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5532,7 +5532,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/custom-node-configuration</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I104" s="16" t="n"/>
@@ -5540,7 +5540,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Use the Horizontal Pod Autoscaler when required</t>
+          <t>Use the Cluster Autoscaler</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5586,7 +5586,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5607,17 +5607,13 @@
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Consider an appropriate node size, not too large or too small</t>
-        </is>
-      </c>
-      <c r="D106" s="22" t="inlineStr">
-        <is>
-          <t>Larger nodes will bring higher performance and features such as ephemeral disks and accelerated networking, but they will increase the blast radius and decrease the scaling granularity</t>
-        </is>
-      </c>
+          <t>Customize node configuration for AKS node pools</t>
+        </is>
+      </c>
+      <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5628,7 +5624,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
+          <t>https://learn.microsoft.com/azure/aks/custom-node-configuration</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -5636,7 +5632,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5657,17 +5653,13 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>If required for scalability consider adding more than 5000 nodes</t>
-        </is>
-      </c>
-      <c r="D107" s="22" t="inlineStr">
-        <is>
-          <t>Larger nodes will bring higher performance and features such as ephemeral disks and accelerated networking, but they will increase the blast radius and decrease the scaling granularity</t>
-        </is>
-      </c>
+          <t>Use the Horizontal Pod Autoscaler when required</t>
+        </is>
+      </c>
+      <c r="D107" s="22" t="n"/>
       <c r="E107" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5678,7 +5670,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/quotas-skus-regions#service-quotas-and-limits</t>
+          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -5686,7 +5678,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5707,7 +5699,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Consider subscribing to EventGrid Events for AKS automation</t>
+          <t>Consider an appropriate node size, not too large or too small</t>
         </is>
       </c>
       <c r="D108" s="22" t="inlineStr">
@@ -5717,7 +5709,7 @@
       </c>
       <c r="E108" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5728,7 +5720,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/event-grid/event-schema-aks</t>
+          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -5757,14 +5749,10 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>For long running operation on an AKS cluster consider event termination</t>
-        </is>
-      </c>
-      <c r="D109" s="22" t="inlineStr">
-        <is>
-          <t>Larger nodes will bring higher performance and features such as ephemeral disks and accelerated networking, but they will increase the blast radius and decrease the scaling granularity</t>
-        </is>
-      </c>
+          <t>If required for scalability consider adding more than 5000 nodes</t>
+        </is>
+      </c>
+      <c r="D109" s="22" t="n"/>
       <c r="E109" s="22" t="inlineStr">
         <is>
           <t>Low</t>
@@ -5778,7 +5766,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/manage-abort-operations</t>
+          <t>https://learn.microsoft.com/azure/aks/quotas-skus-regions#service-quotas-and-limits</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -5807,14 +5795,10 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>If required consider using Azure Dedicated Hosts for AKS nodes</t>
-        </is>
-      </c>
-      <c r="D110" s="22" t="inlineStr">
-        <is>
-          <t>Larger nodes will bring higher performance and features such as ephemeral disks and accelerated networking, but they will increase the blast radius and decrease the scaling granularity</t>
-        </is>
-      </c>
+          <t>Consider subscribing to EventGrid Events for AKS automation</t>
+        </is>
+      </c>
+      <c r="D110" s="22" t="n"/>
       <c r="E110" s="22" t="inlineStr">
         <is>
           <t>Low</t>
@@ -5828,7 +5812,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-azure-dedicated-hosts</t>
+          <t>https://learn.microsoft.com/azure/event-grid/event-schema-aks</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -5852,18 +5836,18 @@
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>Resources</t>
+          <t>Scalability</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Configure requests and limits in your pod specs</t>
+          <t>For long running operation on an AKS cluster consider event termination</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5874,14 +5858,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://learn.microsoft.com/azure/aks/manage-abort-operations</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5897,18 +5881,18 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Resources</t>
+          <t>Scalability</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Enforce resource quotas for namespaces</t>
+          <t>If required consider using Azure Dedicated Hosts for AKS nodes</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
       <c r="E112" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5919,7 +5903,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://learn.microsoft.com/azure/aks/use-azure-dedicated-hosts</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -5927,7 +5911,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>769ef669-1a48-435a-a942-223ece80b123</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -5943,12 +5927,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Resources</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Ensure your subscription has enough quota to scale out your nodepools</t>
+          <t>Use ephemeral OS disks</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -5965,7 +5949,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -5973,7 +5957,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
+          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -5984,23 +5968,23 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>Application Deployment</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Infrastructure as Code</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Use automation through ARM/TF to create your Azure resources</t>
+          <t>For non-ephemeral disks, use high IOPS and larger OS disks for the nodes when running many pods/node since it requires high performance for running multiple pods and will generate huge logs with default AKS log rotation thresholds</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6011,7 +5995,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/developer/terraform/create-k8s-cluster-with-tf-and-aks</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6019,7 +6003,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>3acbe04b-be20-49d3-afda-47778424d116</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6030,23 +6014,23 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>Application Deployment</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Use canary or blue/green deployments</t>
+          <t>For hyper performance storage option use Ultra Disks on AKS</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
       <c r="E115" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6057,14 +6041,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/containers/aks/secure-baseline-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/use-ultra-disks</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
+          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6075,23 +6059,23 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>Application Deployment</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>If requrired for AKS Windows workloads HostProcess containers can be used</t>
+          <t>Avoid keeping state in the cluster, and store data outside (AzStorage, AzSQL, Cosmos, etc)</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
       <c r="E116" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6102,14 +6086,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-windows-hpc</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
+          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6120,23 +6104,23 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>Application Deployment</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Use KEDA if running event-driven workloads</t>
+          <t>If using AzFiles Standard, consider AzFiles Premium and/or ANF for performance reasons</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6147,14 +6131,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-functions/functions-kubernetes-keda</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-storage</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
+          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6165,23 +6149,23 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>Application Deployment</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Use Dapr to ease microservice development</t>
+          <t>If using Azure Disks and AZs, consider having nodepools within a zone for LRS disk with VolumeBindingMode:WaitForFirstConsumer for provisioning storage in right zone or use ZRS disk for nodepools spanning multiple zones</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
       <c r="E118" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6192,7 +6176,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://dapr.io/</t>
+          <t>https://docs.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6200,7 +6184,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
+          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -11259,7 +11243,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11343,7 +11327,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11400,43 +11384,43 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F119" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/aks_checklist.en.xlsx
+++ b/spreadsheet/aks_checklist.en.xlsx
@@ -5774,7 +5774,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5820,7 +5820,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5865,7 +5865,7 @@
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5911,7 +5911,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>

--- a/spreadsheet/aks_checklist.en.xlsx
+++ b/spreadsheet/aks_checklist.en.xlsx
@@ -1151,7 +1151,7 @@
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>If requrired for AKS Windows workloads HostProcess containers can be used</t>
+          <t>If required for AKS Windows workloads HostProcess containers can be used</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Security Center to detect security posture vulnerabiities</t>
+          <t>Use Azure Security Center to detect security posture vulnerabilities</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Develop own governanance practices to make sure no changes are performed by operators in the node RG (aka 'infra RG')</t>
+          <t>Develop own governance practices to make sure no changes are performed by operators in the node RG (aka 'infra RG')</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -5774,7 +5774,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5820,7 +5820,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5865,7 +5865,7 @@
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5911,7 +5911,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
